--- a/KOMPEGE/block 18/18_17.xlsx
+++ b/KOMPEGE/block 18/18_17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107E390-27D1-4D5D-8194-7A49951A062E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7190A5-4682-4D3F-8DAA-A707F166ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="900" windowWidth="33930" windowHeight="18870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2340" yWindow="3225" windowWidth="22515" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -736,375 +736,375 @@
         <v>108</v>
       </c>
       <c r="B13">
-        <f>B2+MIN(A13,B12)</f>
+        <f t="shared" ref="B13:B21" si="1">B2+MIN(A13,B12)</f>
         <v>115</v>
       </c>
       <c r="C13">
-        <f>C2+MIN(B13,C12)</f>
+        <f t="shared" ref="C13:C21" si="2">C2+MIN(B13,C12)</f>
         <v>212</v>
       </c>
       <c r="D13">
-        <f>D2+MIN(C13,D12)</f>
+        <f t="shared" ref="D13:D21" si="3">D2+MIN(C13,D12)</f>
         <v>263</v>
       </c>
       <c r="E13">
-        <f>E2+MIN(D13,E12)</f>
+        <f t="shared" ref="E13:E21" si="4">E2+MIN(D13,E12)</f>
         <v>350</v>
       </c>
       <c r="F13">
-        <f>F2+MIN(E13,F12)</f>
+        <f t="shared" ref="F13:F21" si="5">F2+MIN(E13,F12)</f>
         <v>360</v>
       </c>
       <c r="G13">
-        <f>G2+MIN(F13,G12)</f>
+        <f t="shared" ref="G13:G21" si="6">G2+MIN(F13,G12)</f>
         <v>453</v>
       </c>
       <c r="H13">
-        <f>H2+MIN(G13,H12)</f>
+        <f t="shared" ref="H13:H21" si="7">H2+MIN(G13,H12)</f>
         <v>485</v>
       </c>
       <c r="I13">
-        <f>I2+MIN(H13,I12)</f>
+        <f t="shared" ref="I13:I21" si="8">I2+MIN(H13,I12)</f>
         <v>501</v>
       </c>
       <c r="J13">
-        <f>J2+MIN(I13,J12)</f>
+        <f t="shared" ref="J13:J21" si="9">J2+MIN(I13,J12)</f>
         <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" ref="A14:A21" si="1">A3+A13</f>
+        <f t="shared" ref="A14:A21" si="10">A3+A13</f>
         <v>171</v>
       </c>
       <c r="B14">
-        <f>B3+MIN(A14,B13)</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="C14">
-        <f>C3+MIN(B14,C13)</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="D14">
-        <f>D3+MIN(C14,D13)</f>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="E14">
-        <f>E3+MIN(D14,E13)</f>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="F14">
-        <f>F3+MIN(E14,F13)</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="G14">
-        <f>G3+MIN(F14,G13)</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="H14">
-        <f>H3+MIN(G14,H13)</f>
+        <f t="shared" si="7"/>
         <v>506</v>
       </c>
       <c r="I14">
-        <f>I3+MIN(H14,I13)</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
       <c r="J14">
-        <f>J3+MIN(I14,J13)</f>
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="B15">
-        <f>B4+MIN(A15,B14)</f>
         <v>188</v>
       </c>
       <c r="C15">
-        <f>C4+MIN(B15,C14)</f>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="D15">
-        <f>D4+MIN(C15,D14)</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="E15">
-        <f>E4+MIN(D15,E14)</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="F15">
-        <f>F4+MIN(E15,F14)</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="G15">
-        <f>G4+MIN(F15,G14)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="H15">
-        <f>H4+MIN(G15,H14)</f>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
       <c r="I15">
-        <f>I4+MIN(H15,I14)</f>
+        <f t="shared" si="8"/>
         <v>586</v>
       </c>
       <c r="J15">
-        <f>J4+MIN(I15,J14)</f>
+        <f t="shared" si="9"/>
         <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="B16">
-        <f>B5+MIN(A16,B15)</f>
         <v>231</v>
       </c>
       <c r="C16">
-        <f>C5+MIN(B16,C15)</f>
+        <f t="shared" si="2"/>
         <v>321</v>
       </c>
       <c r="D16">
-        <f>D5+MIN(C16,D15)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="E16">
-        <f>E5+MIN(D16,E15)</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="F16">
-        <f>F5+MIN(E16,F15)</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="G16">
-        <f>G5+MIN(F16,G15)</f>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="H16">
-        <f>H5+MIN(G16,H15)</f>
+        <f t="shared" si="7"/>
         <v>378</v>
       </c>
       <c r="I16">
-        <f>I5+MIN(H16,I15)</f>
+        <f t="shared" si="8"/>
         <v>383</v>
       </c>
       <c r="J16">
-        <f>J5+MIN(I16,J15)</f>
+        <f t="shared" si="9"/>
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="B17">
-        <f>B6+MIN(A17,B16)</f>
         <v>250</v>
       </c>
       <c r="C17">
-        <f>C6+MIN(B17,C16)</f>
+        <f t="shared" si="2"/>
         <v>321</v>
       </c>
       <c r="D17">
-        <f>D6+MIN(C17,D16)</f>
+        <f t="shared" si="3"/>
         <v>287</v>
       </c>
       <c r="E17">
-        <f>E6+MIN(D17,E16)</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="F17">
-        <f>F6+MIN(E17,F16)</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="G17">
-        <f>G6+MIN(F17,G16)</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="H17">
-        <f>H6+MIN(G17,H16)</f>
+        <f t="shared" si="7"/>
         <v>434</v>
       </c>
       <c r="I17">
-        <f>I6+MIN(H17,I16)</f>
+        <f t="shared" si="8"/>
         <v>393</v>
       </c>
       <c r="J17">
-        <f>J6+MIN(I17,J16)</f>
+        <f t="shared" si="9"/>
         <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="B18">
-        <f>B7+MIN(A18,B17)</f>
         <v>307</v>
       </c>
       <c r="C18">
-        <f>C7+MIN(B18,C17)</f>
+        <f t="shared" si="2"/>
         <v>334</v>
       </c>
       <c r="D18">
-        <f>D7+MIN(C18,D17)</f>
+        <f t="shared" si="3"/>
         <v>313</v>
       </c>
       <c r="E18">
-        <f>E7+MIN(D18,E17)</f>
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
       <c r="F18">
-        <f>F7+MIN(E18,F17)</f>
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="G18">
-        <f>G7+MIN(F18,G17)</f>
+        <f t="shared" si="6"/>
         <v>485</v>
       </c>
       <c r="H18">
-        <f>H7+MIN(G18,H17)</f>
+        <f t="shared" si="7"/>
         <v>445</v>
       </c>
       <c r="I18">
-        <f>I7+MIN(H18,I17)</f>
+        <f t="shared" si="8"/>
         <v>446</v>
       </c>
       <c r="J18">
-        <f>J7+MIN(I18,J17)</f>
+        <f t="shared" si="9"/>
         <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="1"/>
-        <v>426</v>
-      </c>
-      <c r="B19">
-        <f>B8+MIN(A19,B18)</f>
         <v>386</v>
       </c>
       <c r="C19">
-        <f>C8+MIN(B19,C18)</f>
+        <f t="shared" si="2"/>
         <v>383</v>
       </c>
       <c r="D19">
-        <f>D8+MIN(C19,D18)</f>
+        <f t="shared" si="3"/>
         <v>359</v>
       </c>
       <c r="E19">
-        <f>E8+MIN(D19,E18)</f>
+        <f t="shared" si="4"/>
         <v>396</v>
       </c>
       <c r="F19">
-        <f>F8+MIN(E19,F18)</f>
+        <f t="shared" si="5"/>
         <v>454</v>
       </c>
       <c r="G19">
-        <f>G8+MIN(F19,G18)</f>
+        <f t="shared" si="6"/>
         <v>534</v>
       </c>
       <c r="H19">
-        <f>H8+MIN(G19,H18)</f>
+        <f t="shared" si="7"/>
         <v>476</v>
       </c>
       <c r="I19">
-        <f>I8+MIN(H19,I18)</f>
+        <f t="shared" si="8"/>
         <v>471</v>
       </c>
       <c r="J19">
-        <f>J8+MIN(I19,J18)</f>
+        <f t="shared" si="9"/>
         <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="10"/>
+        <v>448</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="B20">
-        <f>B9+MIN(A20,B19)</f>
         <v>457</v>
       </c>
       <c r="C20">
-        <f>C9+MIN(B20,C19)</f>
+        <f t="shared" si="2"/>
         <v>403</v>
       </c>
       <c r="D20">
-        <f>D9+MIN(C20,D19)</f>
+        <f t="shared" si="3"/>
         <v>382</v>
       </c>
       <c r="E20">
-        <f>E9+MIN(D20,E19)</f>
+        <f t="shared" si="4"/>
         <v>393</v>
       </c>
       <c r="F20">
-        <f>F9+MIN(E20,F19)</f>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="G20">
-        <f>G9+MIN(F20,G19)</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="H20">
-        <f>H9+MIN(G20,H19)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="I20">
-        <f>I9+MIN(H20,I19)</f>
+        <f t="shared" si="8"/>
         <v>524</v>
       </c>
       <c r="J20">
-        <f>J9+MIN(I20,J19)</f>
+        <f t="shared" si="9"/>
         <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="1"/>
-        <v>452</v>
-      </c>
-      <c r="B21">
-        <f>B10+MIN(A21,B20)</f>
         <v>477</v>
       </c>
       <c r="C21">
-        <f>C10+MIN(B21,C20)</f>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="D21">
-        <f>D10+MIN(C21,D20)</f>
+        <f t="shared" si="3"/>
         <v>466</v>
       </c>
       <c r="E21">
-        <f>E10+MIN(D21,E20)</f>
+        <f t="shared" si="4"/>
         <v>423</v>
       </c>
       <c r="F21">
-        <f>F10+MIN(E21,F20)</f>
+        <f t="shared" si="5"/>
         <v>453</v>
       </c>
       <c r="G21">
-        <f>G10+MIN(F21,G20)</f>
+        <f t="shared" si="6"/>
         <v>521</v>
       </c>
       <c r="H21">
-        <f>H10+MIN(G21,H20)</f>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
       <c r="I21">
-        <f>I10+MIN(H21,I20)</f>
+        <f t="shared" si="8"/>
         <v>513</v>
       </c>
       <c r="J21">
-        <f>J10+MIN(I21,J20)</f>
+        <f t="shared" si="9"/>
         <v>502</v>
       </c>
       <c r="L21">
